--- a/04_dataFrames/columnas.xlsx
+++ b/04_dataFrames/columnas.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="15">
   <si>
     <t>artist</t>
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>id</t>
@@ -413,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -429,434 +432,554 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>16412</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>16413</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>16414</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>16415</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>16416</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>16417</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>16418</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>16419</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>16420</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>16421</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>16422</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>16423</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>16424</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>16425</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>16426</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16427</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16428</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16429</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>16430</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>16431</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>16432</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>16433</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>16434</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>16435</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>16436</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>16437</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>16438</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>16439</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>16440</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>16441</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>4704</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>4705</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>4706</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>4707</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>4708</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>4709</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>4710</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>4711</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>11838</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>1979</v>
       </c>
     </row>
   </sheetData>
